--- a/Nov 2019 to Dec 2019 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Nov 2019 to Dec 2019 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C14F302-5BE7-4508-9BC6-9224004E2D83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B441614F-F8A0-4EA5-BA74-344CC8495D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,31 +559,31 @@
     <t>Sling: Cloud DVR</t>
   </si>
   <si>
-    <t>New or changed Alias for Network in Dec 2019</t>
-  </si>
-  <si>
-    <t>Base Network removed from Service in Dec 2019</t>
-  </si>
-  <si>
-    <t>Network removed from DB in Dec 2019</t>
-  </si>
-  <si>
-    <t>Network moved from Base Service to Add-on Package in Dec 2019</t>
-  </si>
-  <si>
-    <t>Network moved from Add-on package to Base Service in Dec 2019</t>
-  </si>
-  <si>
-    <t>Network removed from Add-On Package in Dec 2019</t>
-  </si>
-  <si>
-    <t>Network added to Base Service in Dec 2019</t>
-  </si>
-  <si>
-    <t>Network added to DB in Dec 2019</t>
-  </si>
-  <si>
-    <t>Network added to Add-On Package within Service in Dec 2019</t>
+    <t>Alias Changed for Network</t>
+  </si>
+  <si>
+    <t>Network Moved from Add-On Package to Base Service</t>
+  </si>
+  <si>
+    <t>Network Moved from Base Service to Add-On Package</t>
+  </si>
+  <si>
+    <t>New Network Added to Database</t>
+  </si>
+  <si>
+    <t>Network Removed from Database</t>
+  </si>
+  <si>
+    <t>Network Added to Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Removed from Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Added to Base Service in Dec 2019</t>
+  </si>
+  <si>
+    <t>Network Removed from Base Service</t>
   </si>
 </sst>
 </file>
@@ -1434,8 +1434,8 @@
   <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8:E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1554,7 +1554,7 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1568,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1582,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1596,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1610,7 +1610,7 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1624,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1638,7 +1638,7 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1652,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1666,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1680,7 +1680,7 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1694,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1708,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -1722,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1736,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1750,7 +1750,7 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1764,7 +1764,7 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -1778,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1792,7 +1792,7 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1806,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1820,7 +1820,7 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1834,7 +1834,7 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1851,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1868,7 +1868,7 @@
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1885,7 +1885,7 @@
         <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -1899,7 +1899,7 @@
         <v>170</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1913,7 +1913,7 @@
         <v>171</v>
       </c>
       <c r="E32" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1927,7 +1927,7 @@
         <v>172</v>
       </c>
       <c r="E33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1941,7 +1941,7 @@
         <v>173</v>
       </c>
       <c r="E34" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1955,7 +1955,7 @@
         <v>174</v>
       </c>
       <c r="E35" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1969,7 +1969,7 @@
         <v>175</v>
       </c>
       <c r="E36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -1983,7 +1983,7 @@
         <v>176</v>
       </c>
       <c r="E37" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1997,7 +1997,7 @@
         <v>177</v>
       </c>
       <c r="E38" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -2011,7 +2011,7 @@
         <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -2025,7 +2025,7 @@
         <v>94</v>
       </c>
       <c r="E40" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -2039,7 +2039,7 @@
         <v>115</v>
       </c>
       <c r="E41" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -2053,7 +2053,7 @@
         <v>122</v>
       </c>
       <c r="E42" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -2067,7 +2067,7 @@
         <v>129</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -2081,7 +2081,7 @@
         <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
@@ -2095,7 +2095,7 @@
         <v>151</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -2109,7 +2109,7 @@
         <v>152</v>
       </c>
       <c r="E46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -2123,7 +2123,7 @@
         <v>153</v>
       </c>
       <c r="E47" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -2137,7 +2137,7 @@
         <v>154</v>
       </c>
       <c r="E48" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
@@ -2151,7 +2151,7 @@
         <v>155</v>
       </c>
       <c r="E49" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -2165,7 +2165,7 @@
         <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -2179,7 +2179,7 @@
         <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
@@ -2193,7 +2193,7 @@
         <v>101</v>
       </c>
       <c r="E52" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -2207,7 +2207,7 @@
         <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
@@ -2221,7 +2221,7 @@
         <v>92</v>
       </c>
       <c r="E54" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
@@ -2235,7 +2235,7 @@
         <v>124</v>
       </c>
       <c r="E55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
@@ -2249,7 +2249,7 @@
         <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -2266,7 +2266,7 @@
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -2283,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -2300,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
@@ -2317,7 +2317,7 @@
         <v>92</v>
       </c>
       <c r="E60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
@@ -2334,7 +2334,7 @@
         <v>101</v>
       </c>
       <c r="E61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
@@ -2351,7 +2351,7 @@
         <v>124</v>
       </c>
       <c r="E62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
@@ -2365,7 +2365,7 @@
         <v>88</v>
       </c>
       <c r="E63" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
@@ -2379,7 +2379,7 @@
         <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
@@ -2393,7 +2393,7 @@
         <v>92</v>
       </c>
       <c r="E65" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
@@ -2407,7 +2407,7 @@
         <v>101</v>
       </c>
       <c r="E66" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
@@ -2421,7 +2421,7 @@
         <v>101</v>
       </c>
       <c r="E67" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
@@ -2435,7 +2435,7 @@
         <v>88</v>
       </c>
       <c r="E68" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
@@ -2449,7 +2449,7 @@
         <v>92</v>
       </c>
       <c r="E69" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
@@ -2463,7 +2463,7 @@
         <v>124</v>
       </c>
       <c r="E70" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
@@ -2477,7 +2477,7 @@
         <v>124</v>
       </c>
       <c r="E71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
@@ -2494,7 +2494,7 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
@@ -2508,7 +2508,7 @@
         <v>88</v>
       </c>
       <c r="E73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
@@ -2522,7 +2522,7 @@
         <v>88</v>
       </c>
       <c r="E74" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -2536,7 +2536,7 @@
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
@@ -2550,7 +2550,7 @@
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
@@ -2564,7 +2564,7 @@
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
@@ -2578,7 +2578,7 @@
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
@@ -2592,7 +2592,7 @@
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
@@ -2606,7 +2606,7 @@
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
@@ -2620,7 +2620,7 @@
         <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
@@ -2634,7 +2634,7 @@
         <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
@@ -2648,7 +2648,7 @@
         <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
@@ -2662,7 +2662,7 @@
         <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
@@ -2676,7 +2676,7 @@
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
@@ -2690,7 +2690,7 @@
         <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
@@ -2704,7 +2704,7 @@
         <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
@@ -2718,7 +2718,7 @@
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
@@ -2732,7 +2732,7 @@
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
@@ -2746,7 +2746,7 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
@@ -2760,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
@@ -2774,7 +2774,7 @@
         <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
@@ -2788,7 +2788,7 @@
         <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
@@ -2802,7 +2802,7 @@
         <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
@@ -2816,7 +2816,7 @@
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
@@ -2830,7 +2830,7 @@
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
@@ -2844,7 +2844,7 @@
         <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
@@ -2858,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="E98" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
@@ -2872,7 +2872,7 @@
         <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
@@ -2886,7 +2886,7 @@
         <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
@@ -2900,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
@@ -2914,7 +2914,7 @@
         <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.4">
@@ -2928,7 +2928,7 @@
         <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
@@ -2942,7 +2942,7 @@
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
@@ -2956,7 +2956,7 @@
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.4">
@@ -2970,7 +2970,7 @@
         <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
@@ -2984,7 +2984,7 @@
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.4">
@@ -2998,7 +2998,7 @@
         <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
@@ -3012,7 +3012,7 @@
         <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.4">
@@ -3026,7 +3026,7 @@
         <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.4">
@@ -3040,7 +3040,7 @@
         <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.4">
@@ -3054,7 +3054,7 @@
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
@@ -3068,7 +3068,7 @@
         <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
@@ -3082,7 +3082,7 @@
         <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
@@ -3096,7 +3096,7 @@
         <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
@@ -3110,7 +3110,7 @@
         <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
@@ -3124,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
@@ -3138,7 +3138,7 @@
         <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
@@ -3152,7 +3152,7 @@
         <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
@@ -3166,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
@@ -3180,7 +3180,7 @@
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.4">
@@ -3194,7 +3194,7 @@
         <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.4">
@@ -3208,7 +3208,7 @@
         <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
@@ -3222,7 +3222,7 @@
         <v>4</v>
       </c>
       <c r="E124" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
@@ -3236,7 +3236,7 @@
         <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.4">
@@ -3250,7 +3250,7 @@
         <v>4</v>
       </c>
       <c r="E126" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
@@ -3264,7 +3264,7 @@
         <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
@@ -3278,7 +3278,7 @@
         <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
@@ -3292,7 +3292,7 @@
         <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.4">
@@ -3306,7 +3306,7 @@
         <v>4</v>
       </c>
       <c r="E130" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.4">
@@ -3320,7 +3320,7 @@
         <v>4</v>
       </c>
       <c r="E131" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.4">
@@ -3334,7 +3334,7 @@
         <v>4</v>
       </c>
       <c r="E132" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.4">
@@ -3348,7 +3348,7 @@
         <v>4</v>
       </c>
       <c r="E133" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.4">
@@ -3362,7 +3362,7 @@
         <v>4</v>
       </c>
       <c r="E134" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.4">
@@ -3376,7 +3376,7 @@
         <v>4</v>
       </c>
       <c r="E135" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.4">
@@ -3390,7 +3390,7 @@
         <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.4">
@@ -3404,7 +3404,7 @@
         <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.4">
@@ -3418,7 +3418,7 @@
         <v>4</v>
       </c>
       <c r="E138" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
@@ -3432,7 +3432,7 @@
         <v>4</v>
       </c>
       <c r="E139" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.4">
@@ -3446,7 +3446,7 @@
         <v>4</v>
       </c>
       <c r="E140" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.4">
@@ -3460,7 +3460,7 @@
         <v>4</v>
       </c>
       <c r="E141" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.4">
@@ -3474,7 +3474,7 @@
         <v>4</v>
       </c>
       <c r="E142" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.4">
@@ -3488,7 +3488,7 @@
         <v>66</v>
       </c>
       <c r="E143" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.4">
@@ -3502,7 +3502,7 @@
         <v>26</v>
       </c>
       <c r="E144" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.4">
@@ -3516,7 +3516,7 @@
         <v>106</v>
       </c>
       <c r="E145" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
@@ -3530,7 +3530,7 @@
         <v>126</v>
       </c>
       <c r="E146" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.4">
@@ -3544,7 +3544,7 @@
         <v>132</v>
       </c>
       <c r="E147" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.4">
@@ -3558,7 +3558,7 @@
         <v>150</v>
       </c>
       <c r="E148" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.4">
@@ -3572,7 +3572,7 @@
         <v>156</v>
       </c>
       <c r="E149" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.4">
@@ -3586,7 +3586,7 @@
         <v>168</v>
       </c>
       <c r="E150" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.4">
@@ -3600,7 +3600,7 @@
         <v>69</v>
       </c>
       <c r="E151" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.4">
@@ -3614,7 +3614,7 @@
         <v>69</v>
       </c>
       <c r="E152" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.4">
@@ -3628,7 +3628,7 @@
         <v>69</v>
       </c>
       <c r="E153" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.4">
@@ -3642,7 +3642,7 @@
         <v>69</v>
       </c>
       <c r="E154" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.4">
@@ -3656,7 +3656,7 @@
         <v>69</v>
       </c>
       <c r="E155" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.4">
@@ -3670,7 +3670,7 @@
         <v>69</v>
       </c>
       <c r="E156" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.4">
@@ -3684,7 +3684,7 @@
         <v>69</v>
       </c>
       <c r="E157" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.4">
@@ -3698,7 +3698,7 @@
         <v>69</v>
       </c>
       <c r="E158" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.4">
@@ -3712,7 +3712,7 @@
         <v>69</v>
       </c>
       <c r="E159" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.4">
@@ -3726,7 +3726,7 @@
         <v>4</v>
       </c>
       <c r="E160" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.4">
@@ -3740,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.4">
@@ -3754,7 +3754,7 @@
         <v>4</v>
       </c>
       <c r="E162" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.4">
@@ -3768,7 +3768,7 @@
         <v>4</v>
       </c>
       <c r="E163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.4">
@@ -3782,7 +3782,7 @@
         <v>4</v>
       </c>
       <c r="E164" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.4">
@@ -3796,7 +3796,7 @@
         <v>4</v>
       </c>
       <c r="E165" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.4">
@@ -3810,7 +3810,7 @@
         <v>4</v>
       </c>
       <c r="E166" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.4">
@@ -3824,7 +3824,7 @@
         <v>4</v>
       </c>
       <c r="E167" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.4">
@@ -3838,7 +3838,7 @@
         <v>4</v>
       </c>
       <c r="E168" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.4">
@@ -3852,7 +3852,7 @@
         <v>4</v>
       </c>
       <c r="E169" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.4">
@@ -3866,7 +3866,7 @@
         <v>4</v>
       </c>
       <c r="E170" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.4">
@@ -3880,7 +3880,7 @@
         <v>4</v>
       </c>
       <c r="E171" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.4">
@@ -3894,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="E172" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.4">
@@ -3908,7 +3908,7 @@
         <v>4</v>
       </c>
       <c r="E173" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.4">
@@ -3922,7 +3922,7 @@
         <v>4</v>
       </c>
       <c r="E174" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.4">
@@ -3936,7 +3936,7 @@
         <v>4</v>
       </c>
       <c r="E175" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.4">
@@ -3950,7 +3950,7 @@
         <v>4</v>
       </c>
       <c r="E176" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.4">
@@ -3964,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="E177" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.4">
@@ -3978,7 +3978,7 @@
         <v>4</v>
       </c>
       <c r="E178" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.4">
@@ -3992,7 +3992,7 @@
         <v>4</v>
       </c>
       <c r="E179" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.4">
@@ -4006,7 +4006,7 @@
         <v>4</v>
       </c>
       <c r="E180" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.4">
@@ -4020,7 +4020,7 @@
         <v>4</v>
       </c>
       <c r="E181" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.4">
@@ -4034,7 +4034,7 @@
         <v>4</v>
       </c>
       <c r="E182" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.4">
@@ -4048,7 +4048,7 @@
         <v>4</v>
       </c>
       <c r="E183" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.4">
@@ -4062,7 +4062,7 @@
         <v>4</v>
       </c>
       <c r="E184" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.4">
@@ -4076,7 +4076,7 @@
         <v>4</v>
       </c>
       <c r="E185" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.4">
@@ -4090,7 +4090,7 @@
         <v>4</v>
       </c>
       <c r="E186" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.4">
@@ -4104,7 +4104,7 @@
         <v>4</v>
       </c>
       <c r="E187" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.4">
@@ -4118,7 +4118,7 @@
         <v>4</v>
       </c>
       <c r="E188" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.4">
@@ -4135,7 +4135,7 @@
         <v>69</v>
       </c>
       <c r="E189" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.4">
@@ -4152,7 +4152,7 @@
         <v>69</v>
       </c>
       <c r="E190" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.4">
@@ -4169,7 +4169,7 @@
         <v>69</v>
       </c>
       <c r="E191" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.4">
@@ -4186,7 +4186,7 @@
         <v>69</v>
       </c>
       <c r="E192" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.4">
@@ -4203,7 +4203,7 @@
         <v>69</v>
       </c>
       <c r="E193" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.4">
@@ -4220,7 +4220,7 @@
         <v>69</v>
       </c>
       <c r="E194" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.4">
@@ -4237,7 +4237,7 @@
         <v>69</v>
       </c>
       <c r="E195" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.4">
@@ -4251,7 +4251,7 @@
         <v>4</v>
       </c>
       <c r="E196" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.4">
@@ -4265,7 +4265,7 @@
         <v>4</v>
       </c>
       <c r="E197" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.4">
@@ -4279,7 +4279,7 @@
         <v>4</v>
       </c>
       <c r="E198" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.4">
@@ -4293,7 +4293,7 @@
         <v>4</v>
       </c>
       <c r="E199" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
